--- a/data/trans_dic/P56$nadie-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P56$nadie-Edad-trans_dic.xlsx
@@ -717,31 +717,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01899418898870385</v>
+        <v>0.01824352183821934</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08864647593842924</v>
+        <v>0.08940380371660465</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1753262081788318</v>
+        <v>0.1761958280765684</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02064622274848963</v>
+        <v>0.02159168663309239</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02567995521720574</v>
+        <v>0.02576989508442455</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06216736187345843</v>
+        <v>0.07113534316612927</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1309047933898813</v>
+        <v>0.1398577858440079</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0325383236447469</v>
+        <v>0.03088384530133284</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3906931181965214</v>
+        <v>0.3904754350623613</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1967139594707189</v>
+        <v>0.2018694819478202</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3144533880669586</v>
+        <v>0.436242800143686</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1722624147713861</v>
+        <v>0.1669422437470759</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2575840138189424</v>
+        <v>0.2543972954318059</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3242684815396399</v>
+        <v>0.3118983866741507</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4685775424901703</v>
+        <v>0.4720048714571907</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1139664360946407</v>
+        <v>0.1157361897773786</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2265423865912468</v>
+        <v>0.2373169706273287</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2292982333328561</v>
+        <v>0.2366527978972064</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.353481076788751</v>
+        <v>0.3646378230058863</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1121778757660437</v>
+        <v>0.108918100933261</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.07930647176129654</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04770336294781814</v>
+        <v>0.04770336294781813</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1146456254190066</v>
@@ -821,7 +821,7 @@
         <v>0.1230258047624258</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.04315564880555363</v>
+        <v>0.04315564880555364</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.09316231857912928</v>
@@ -850,34 +850,34 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01784388070588129</v>
+        <v>0.02914959826211738</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01687383364197412</v>
+        <v>0.01750949875504346</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04683128679498445</v>
+        <v>0.05027956402827674</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01377000380499619</v>
+        <v>0.01408562728958134</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06794335542269911</v>
+        <v>0.06863495165667789</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02608724815011878</v>
+        <v>0.02621024267950458</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04886840292585753</v>
+        <v>0.04545357869258185</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01469313098442536</v>
+        <v>0.014610057874737</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06728846757468143</v>
+        <v>0.06782776130876844</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02895135759091743</v>
+        <v>0.02868919686560964</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1763624155038718</v>
+        <v>0.1529186335477667</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1015489338519084</v>
+        <v>0.08702568556219763</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.183395593378779</v>
+        <v>0.191533274078321</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09809951951435936</v>
+        <v>0.1108083925346433</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2136805656155604</v>
+        <v>0.2009245706320344</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07186759356896522</v>
+        <v>0.08397059511188744</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2008515564140782</v>
+        <v>0.2072586605442009</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06328243638748081</v>
+        <v>0.0654178823347808</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1756292328434255</v>
+        <v>0.1671513379419271</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06590381955848694</v>
+        <v>0.06247334261996116</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1779126849408148</v>
+        <v>0.1756594035392522</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06455122247949147</v>
+        <v>0.06703814724881875</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01747024838080122</v>
+        <v>0.01927245778077691</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02436179196669721</v>
+        <v>0.03204221437562474</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02761352842248453</v>
+        <v>0.02796490807814715</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05771207367531488</v>
+        <v>0.04897637917218103</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03719940870885177</v>
+        <v>0.03638564029482375</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1148659067761599</v>
+        <v>0.1100554487971303</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02797553798366722</v>
+        <v>0.03023741909789351</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0530951419818662</v>
+        <v>0.05420324375356561</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.031105604697625</v>
+        <v>0.03145259013445022</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1004458536183684</v>
+        <v>0.09499760015684625</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03382630851117586</v>
+        <v>0.03438562214179337</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1793055262008519</v>
+        <v>0.1617828534395197</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09442908142068017</v>
+        <v>0.08109616207529433</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1776892355511038</v>
+        <v>0.1679542543505484</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1029564199007272</v>
+        <v>0.09412675434669396</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1826923815260866</v>
+        <v>0.1845307411802675</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1071349755720877</v>
+        <v>0.1088952952503818</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2386984076038163</v>
+        <v>0.2388663024602657</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06586212613972538</v>
+        <v>0.06720282034853467</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1507209027659802</v>
+        <v>0.1518472698523911</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08572784801071175</v>
+        <v>0.08491042897157507</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2024157201574524</v>
+        <v>0.1946183490403093</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06825950954912456</v>
+        <v>0.06628058355422151</v>
       </c>
     </row>
     <row r="13">
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3735</v>
+        <v>3767</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7220</v>
+        <v>7256</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1228</v>
+        <v>1284</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3952</v>
+        <v>4522</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8153</v>
+        <v>8710</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2943</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="7">
@@ -1370,40 +1370,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5026</v>
+        <v>5023</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4215</v>
+        <v>4326</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6634</v>
+        <v>9204</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5337</v>
+        <v>5172</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5685</v>
+        <v>5614</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13663</v>
+        <v>13142</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19297</v>
+        <v>19438</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>6777</v>
+        <v>6882</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>7914</v>
+        <v>8290</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>14575</v>
+        <v>15043</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>22015</v>
+        <v>22710</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>10146</v>
+        <v>9851</v>
       </c>
     </row>
     <row r="8">
@@ -1512,34 +1512,34 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>910</v>
+        <v>1487</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1309</v>
+        <v>1359</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3347</v>
+        <v>3594</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2246</v>
+        <v>2298</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8874</v>
+        <v>8964</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5634</v>
+        <v>5661</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>5224</v>
+        <v>4859</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>3235</v>
+        <v>3217</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>12220</v>
+        <v>12318</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8499</v>
+        <v>8422</v>
       </c>
     </row>
     <row r="11">
@@ -1550,40 +1550,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6246</v>
+        <v>5416</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5796</v>
+        <v>4967</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9353</v>
+        <v>9768</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7612</v>
+        <v>8598</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>15273</v>
+        <v>14361</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>11722</v>
+        <v>13696</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>26232</v>
+        <v>27069</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>13667</v>
+        <v>14128</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>18773</v>
+        <v>17867</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>14511</v>
+        <v>13756</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>32310</v>
+        <v>31901</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>18950</v>
+        <v>19680</v>
       </c>
     </row>
     <row r="12">
@@ -1686,40 +1686,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>843</v>
+        <v>930</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1756</v>
+        <v>2310</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2998</v>
+        <v>3036</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5399</v>
+        <v>4581</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7635</v>
+        <v>7468</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>19733</v>
+        <v>18906</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7705</v>
+        <v>8328</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7530</v>
+        <v>7687</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>8826</v>
+        <v>8925</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>24497</v>
+        <v>23168</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>12989</v>
+        <v>13204</v>
       </c>
     </row>
     <row r="15">
@@ -1730,40 +1730,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8657</v>
+        <v>7811</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7413</v>
+        <v>6366</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12811</v>
+        <v>12109</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11179</v>
+        <v>10220</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17090</v>
+        <v>17262</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21989</v>
+        <v>22350</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>41006</v>
+        <v>41034</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>18140</v>
+        <v>18510</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>21376</v>
+        <v>21536</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>24325</v>
+        <v>24093</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>49366</v>
+        <v>47464</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>26212</v>
+        <v>25452</v>
       </c>
     </row>
     <row r="16">
